--- a/examples/spr-submission-invalid-highlighted.xlsx
+++ b/examples/spr-submission-invalid-highlighted.xlsx
@@ -421,77 +421,77 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Antibody label: TODO</t>
+          <t>- Antibody label: the COVIC label for the antibody (e.g. COVIC 1)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Tested antigen: TODO</t>
+          <t>- Tested antigen: the name of the tested antigen (e.g. Spike protein 1)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- n: TODO</t>
+          <t>- n: the number of runs for the assay (e.g. 6)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>- on rate; Ka in M^-1s^-1: TODO</t>
+          <t>- on rate; Ka in M^-1s^-1: an SPR assay measuring on rate [Ka] in M^-1s^-1 (e.g. 491000)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Standard deviation in M^-1s^-1: TODO</t>
+          <t>- Standard deviation in M^-1s^-1: The standard deviation of the value in 'Standard deviation in M^-1s^-1'</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>- off rate; Kd in 1/s: TODO</t>
+          <t>- off rate; Kd in 1/s: an SPR assay measuring off rate [Kd] in 1/s (e.g. 126)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- Standard deviation in 1/s: TODO</t>
+          <t>- Standard deviation in 1/s: The standard deviation of the value in 'Standard deviation in 1/s'</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>- dissociation constant; KD in nM: TODO</t>
+          <t>- dissociation constant; KD in nM: an SPR assay measuring dissociation constant [KD] in nM (e.g. &lt;.1)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Standard deviation in nM: TODO</t>
+          <t>- Standard deviation in nM: The standard deviation of the value in 'Standard deviation in nM'</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>- Qualitiative measure: TODO</t>
+          <t>- Qualitiative measure: the qualitative measure of the assay (e.g. positive)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Comment: TODO</t>
+          <t>- Comment: general comments about the assay (e.g. did not bind positive control)</t>
         </is>
       </c>
     </row>

--- a/examples/spr-submission-invalid-highlighted.xlsx
+++ b/examples/spr-submission-invalid-highlighted.xlsx
@@ -77,7 +77,7 @@
   <commentList>
     <comment authorId="0" ref="C2" shapeId="0">
       <text>
-        <t>'X' is not of type 'int' in column 'n'</t>
+        <t>'X' is not of type 'integer' in column 'n'</t>
       </text>
     </comment>
     <comment authorId="0" ref="E2" shapeId="0">
@@ -449,7 +449,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Standard deviation in M^-1s^-1: The standard deviation of the value in 'Standard deviation in M^-1s^-1'</t>
+          <t>- Standard deviation in M^-1s^-1: The standard deviation of the value in 'on rate; Ka in M^-1s^-1'</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>- Standard deviation in 1/s: The standard deviation of the value in 'Standard deviation in 1/s'</t>
+          <t>- Standard deviation in 1/s: The standard deviation of the value in 'off rate; Kd in 1/s'</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Standard deviation in nM: The standard deviation of the value in 'Standard deviation in nM'</t>
+          <t>- Standard deviation in nM: The standard deviation of the value in 'dissociation constant; KD in nM'</t>
         </is>
       </c>
     </row>

--- a/examples/spr-submission-invalid-highlighted.xlsx
+++ b/examples/spr-submission-invalid-highlighted.xlsx
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Antibody label: the COVIC label for the antibody (e.g. COVIC 1)</t>
+          <t>- Antibody label: the COVIC label for the antibody (e.g. COVIC-1)</t>
         </is>
       </c>
     </row>

--- a/examples/spr-submission-invalid-highlighted.xlsx
+++ b/examples/spr-submission-invalid-highlighted.xlsx
@@ -75,6 +75,11 @@
     <author>Validation service</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>'COVIC 1' is not a valid COVIC antibody label in column 'Antibody label'</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="C2" shapeId="0">
       <text>
         <t>'X' is not of type 'integer' in column 'n'</t>
@@ -587,7 +592,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>COVIC 1</t>
         </is>

--- a/examples/spr-submission-invalid-highlighted.xlsx
+++ b/examples/spr-submission-invalid-highlighted.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
@@ -55,17 +55,85 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -75,22 +143,22 @@
     <author>Validation service</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>'COVIC 1' is not a valid COVIC antibody label in column 'Antibody label'</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>'X' is not of type 'integer' in column 'n'</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <t>'7000O' is not of type 'float_threshold_na' in column 'Standard deviation in M^-1s^-1'</t>
       </text>
     </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <t>'Positive' is not a valid term in column 'Qualitiative measure'</t>
       </text>
@@ -501,8 +569,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" scenarios="0" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -515,23 +583,23 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="23"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
-    <col customWidth="1" max="6" min="6" width="19"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-    <col customWidth="1" max="8" min="8" width="31"/>
-    <col customWidth="1" max="9" min="9" width="24"/>
-    <col customWidth="1" max="10" min="10" width="20"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,11 +714,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="J2:J100" type="list">
+    <dataValidation sqref="J2:J100" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Terminology!$A$2:$A$4</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -664,13 +732,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -702,7 +770,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" scenarios="0" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>